--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -575,7 +575,7 @@
         <v>45852.66946759259</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45847</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45944.55575231482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45855</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44732</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>45951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45781</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44802</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44876</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44742</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45411.49836805555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44564.67122685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44732</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45098</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44529</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>45904</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>45853</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45716.34917824074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46000.60429398148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         <v>45215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45939</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>45299</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>44455.36458333334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44293</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>44319.53942129629</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>44448</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44369.58023148148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44739</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44725.58684027778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44864.60390046296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44287.39625</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44463</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44425.39621527777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>44549.75856481482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44515.72233796296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44511.78369212963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44735.3494212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44417.55564814815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44313.31770833334</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44688.45394675926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44546.31119212963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44725</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44236</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>44491</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>44445.39759259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>44715.60085648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44650.3603125</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44748</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44725</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44812</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44572</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>45273</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>45268</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44630.5793287037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44866.54778935185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>45604.33951388889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>45604.34466435185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44581.60393518519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>45107.57693287037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>45574</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>45775.56512731482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>45561</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>45628.80193287037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>45664.46653935185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45575</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44978</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45281</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45281</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45575.58675925926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44439.48746527778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44455.4653125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>45636.41715277778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>45551.559375</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44924.5246875</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44896</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44956</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>45604.34008101852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>45729.5565162037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>45567</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45198</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45422.49016203704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45462.65965277778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44690.56789351852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>45628.79650462963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>45804.39335648148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>45240</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>45804.81481481482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>45537.54650462963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>45811</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>45811</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>45811</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44585</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>45811.63216435185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>45809.84229166667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>45282</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>45455.44012731482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>45552.88579861111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44784.55162037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44273.38966435185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>45824.47616898148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>45519.43871527778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>45771</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>45574</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45574</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>45740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>45740.51744212963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>44727</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>45820.57768518518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>45397.63957175926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45905</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45905</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45232</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45824.33739583333</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45825.33287037037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45909.60118055555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45435.43137731482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45911.67565972222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45911.62171296297</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44609.58159722222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>45915.61925925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>45667.65321759259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>45824.34381944445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45923.3503587963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>45925</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>45925</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>45107.58966435185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>45929.37491898148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44572</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>45622.63122685185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>45931.33821759259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>45930.47725694445</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45599</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>45838</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45838</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45931.56057870371</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45604.50557870371</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>45936.38559027778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>45264.58917824074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>45937.44243055556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>45638.36590277778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>45145</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>45939.54412037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>45939.50689814815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>45138.42768518518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44425.39126157408</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>45939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45063</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44960</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>45940.64503472222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>45190</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>45945.66170138889</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>45104.61434027777</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>45945.48137731481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>45946.46853009259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45849.58021990741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45170</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45855.37773148148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>45855.38655092593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45566.56789351852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45855.37565972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45951</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45951</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45951</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>45365</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>45953.37302083334</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45953.36090277778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45954.42386574074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>45870.32357638889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>45411.62793981482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>45954.37292824074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44992</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>45670.58211805556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45958.62429398148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44972.35152777778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45098</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>45875.40737268519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45877.65421296296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45560</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45569.84101851852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45960.37891203703</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45961.39585648148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45960</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44982</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44882</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>45236</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45964.64024305555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45560</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44896.49959490741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>45971.47856481482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45455.86696759259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>45971</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45883.40178240741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45973</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45975.61846064815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44840</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44711.36557870371</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>45006.30673611111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44830</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44935.32741898148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>45985.47695601852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>46031.55268518518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>45216</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>45960.60587962963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>45321</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>46030.58576388889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45628.49807870371</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>46034.60328703704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45175</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>45992.73412037037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>45604.33113425926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>45604.33263888889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>45993.50063657408</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>46034.35295138889</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>44298.61732638889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45484.68149305556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>46037.3446875</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>45638.3634375</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45604.33197916667</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>46036.44633101852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>46036.45327546296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>45527.55416666667</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>45527.55650462963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>46027</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>45604.50121527778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>45527.57577546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45342</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>45628.80585648148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>46026</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>45574</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>46030</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>46041.59100694444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>45265</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>45154.50928240741</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45268</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45330.60379629629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>46036</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45411.48761574074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45411.49664351852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>46031</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>46042.43443287037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>46000.6309375</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>46043.5496875</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>46045.51796296296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>46045.52084490741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44781</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>46030</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>46044.44135416667</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>46044.4659375</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>46044.4721412037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>45576</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>45411.48168981481</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>45411.49284722222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>45398.64800925926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44965</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44413</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45601.88305555555</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>46031.57842592592</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45628.49032407408</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>45526.48674768519</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>45930.66545138889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>46029.45364583333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>46036</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>45264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>45427.56964120371</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>46051.55232638889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>45063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>46036</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>46029.4415625</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>46036</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>46031</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18068,7 +18068,7 @@
         <v>46051</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>46010.7222337963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>46010.66585648148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>46057.61496527777</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>45738.52033564815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>46057.42467592593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>46014.44138888889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44369.54519675926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>46029</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>46029</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>46056.54793981482</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>46037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>46057.43586805555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>46057.45841435185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>46014.52145833334</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>46037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45110.70590277778</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44463</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>46042</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>45247</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>45455.44628472222</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44462</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>46059.3237962963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44789.51010416666</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45432.72061342592</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45366.55604166666</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44812</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44691</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45370</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44908</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45005</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45561</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>45561</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44532.55016203703</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44446.64893518519</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>45561</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>45469.52028935185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>45665.59894675926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44595.60778935185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>45644.44140046297</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>45638.45646990741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>45719</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45775.57885416667</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44817</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45334.72344907407</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44425</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>45537.37413194445</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>45546.56472222223</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45720.36833333333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>45622.45306712963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44784</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45247</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>45201.55331018518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45537.37069444444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44896</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45604.34403935185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>45771.70621527778</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>44784.56407407407</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>45644.31773148148</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>45758.79458333334</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44594</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>45140</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>45453.36730324074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>45761.48274305555</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>44811.45211805555</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21967,7 +21967,7 @@
         <v>45411.48457175926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45527.56167824074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>45442.60379629629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>44643</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         <v>45628.49442129629</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>45232</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22309,7 +22309,7 @@
         <v>44953.45762731481</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>44964</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45520.96</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45182</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>45604</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>45614</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>45758.78844907408</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>45758.79019675926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45758.79270833333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>45442.60010416667</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>45232.89916666667</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>45636.30075231481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44809</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44788</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44748</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45171</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>45783.28149305555</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45596.67398148148</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>45428.91826388889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>45432.7103125</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>45700.38395833333</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>45790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>45365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>45666.66917824074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>45118</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>45443.36738425926</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -575,7 +575,7 @@
         <v>45852.66946759259</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45847</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45944.55575231482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45855</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44732</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>45951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45781</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44802</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44876</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44742</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>45411.49836805555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>44564.67122685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44732</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45098</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44529</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>45904</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>45853</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45716.34917824074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46000.60429398148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         <v>45215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45939</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>45299</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>44455.36458333334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44293</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>44319.53942129629</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>44448</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44369.58023148148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44846</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44739</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44725.58684027778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44864.60390046296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44287.39625</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44463</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44425.39621527777</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>44549.75856481482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44515.72233796296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44511.78369212963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44735.3494212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44417.55564814815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44313.31770833334</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44688.45394675926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44546.31119212963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44725</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>44503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44500</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44236</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>44491</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>44445.39759259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>44715.60085648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44650.3603125</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44748</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44725</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44812</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44572</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>45273</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>45268</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44630.5793287037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44866.54778935185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>45604.33951388889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>45604.34466435185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44581.60393518519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>45107.57693287037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>45574</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>45775.56512731482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>45561</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>45628.80193287037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>45664.46653935185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45575</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44978</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45281</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45281</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45575.58675925926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44439.48746527778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>44455.4653125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>45636.41715277778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>45551.559375</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44924.5246875</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44896</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44956</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>45604.34008101852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>45729.5565162037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>45567</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45198</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45422.49016203704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45462.65965277778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44690.56789351852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>45628.79650462963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>45804.39335648148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>45240</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>45804.81481481482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>45537.54650462963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>45811</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>45811</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>45811</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44585</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>45811.63216435185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>45809.84229166667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>45282</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>45455.44012731482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>45552.88579861111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44784.55162037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44273.38966435185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>45824.47616898148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>45519.43871527778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>45771</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>45574</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45574</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>45740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>45740.51744212963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>44727</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>45820.57768518518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>45397.63957175926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45905</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45905</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45232</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45824.33739583333</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45825.33287037037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45909.60118055555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45435.43137731482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45911.67565972222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45911.62171296297</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44609.58159722222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>45915.61925925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>45667.65321759259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>45824.34381944445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45923.3503587963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>45925</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>45925</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>45107.58966435185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>45929.37491898148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44572</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>45622.63122685185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>45931.33821759259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>45930.47725694445</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45599</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>45838</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45838</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45931.56057870371</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45604.50557870371</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>45936.38559027778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>45264.58917824074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>45937.44243055556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>45638.36590277778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>45145</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>45939.54412037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>45939.50689814815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>45138.42768518518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45939</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44425.39126157408</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>45939</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45063</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44960</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>45940.64503472222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>45190</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>45945.66170138889</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>45104.61434027777</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>45945.48137731481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>45946.46853009259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45849.58021990741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45170</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45855.37773148148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>45855.38655092593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45566.56789351852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45855.37565972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45951</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45951</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45951</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>45365</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>45953.37302083334</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45953.36090277778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45954.42386574074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>45870.32357638889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>45411.62793981482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>45954.37292824074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44992</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>45670.58211805556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45958.62429398148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44972.35152777778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45098</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>45875.40737268519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45877.65421296296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45560</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45569.84101851852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45960.37891203703</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45961.39585648148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45960</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44982</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44882</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>45236</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45964.64024305555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45560</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44896.49959490741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>45971.47856481482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45455.86696759259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>45971</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45883.40178240741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45973</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45975.61846064815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44840</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44711.36557870371</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>45006.30673611111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44830</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44935.32741898148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>45985.47695601852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>44869</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>46031.55268518518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>45216</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>45960.60587962963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>45321</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>46030.58576388889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45628.49807870371</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>46034.60328703704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45175</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>45992.73412037037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>45604.33113425926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>45604.33263888889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>45993.50063657408</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>46034.35295138889</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>44298.61732638889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45484.68149305556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>46037.3446875</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>45638.3634375</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45604.33197916667</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>46036.44633101852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>46036.45327546296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>45527.55416666667</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>45527.55650462963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>46027</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>45604.50121527778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>45527.57577546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45342</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>45628.80585648148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>46026</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>45574</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>46030</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>46041.59100694444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>45265</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>45154.50928240741</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45268</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>45330.60379629629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>46036</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45411.48761574074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45411.49664351852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>46031</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>46042.43443287037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>46000.6309375</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>46043.5496875</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>46045.51796296296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>46045.52084490741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44781</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>46030</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>46044.44135416667</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>46044.4659375</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>46044.4721412037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>45576</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>45411.48168981481</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>45411.49284722222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>45398.64800925926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44965</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44413</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45601.88305555555</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>46031.57842592592</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45628.49032407408</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>45526.48674768519</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>45930.66545138889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>46029.45364583333</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>46036</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>45264</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>45427.56964120371</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>46051.55232638889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>45063</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>46036</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>46029.4415625</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>46036</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>46031</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18068,7 +18068,7 @@
         <v>46051</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>46010.7222337963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>46010.66585648148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>46057.61496527777</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>45738.52033564815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>46057.42467592593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>46014.44138888889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44369.54519675926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>46029</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>46029</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>46056.54793981482</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>46037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>46057.43586805555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>46057.45841435185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>46014.52145833334</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>46037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45110.70590277778</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44463</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>46042</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>45068</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>45247</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>45455.44628472222</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44462</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>46059.3237962963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44789.51010416666</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45432.72061342592</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45366.55604166666</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44812</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44691</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45370</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44908</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45005</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45561</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>45561</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44532.55016203703</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44446.64893518519</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>45561</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>45469.52028935185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>45665.59894675926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44595.60778935185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>45644.44140046297</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>45638.45646990741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>45719</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>45163</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45775.57885416667</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>44817</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45334.72344907407</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>44425</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>45537.37413194445</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>45546.56472222223</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45720.36833333333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>45622.45306712963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44784</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45247</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>45201.55331018518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45537.37069444444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44896</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45604.34403935185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>45771.70621527778</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>44784.56407407407</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>45644.31773148148</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>45758.79458333334</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>44594</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>45140</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>45453.36730324074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>45761.48274305555</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>44811.45211805555</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21967,7 +21967,7 @@
         <v>45411.48457175926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45527.56167824074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>45442.60379629629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>44643</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         <v>45628.49442129629</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>45232</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22309,7 +22309,7 @@
         <v>44953.45762731481</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>44964</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45520.96</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45182</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>45604</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>45614</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>45758.78844907408</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>45758.79019675926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45758.79270833333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>45442.60010416667</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>45232.89916666667</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>45636.30075231481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44809</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44788</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44748</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45171</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>45783.28149305555</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45596.67398148148</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>45428.91826388889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>45432.7103125</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>45700.38395833333</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>45790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>45365</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>45666.66917824074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>45118</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>45443.36738425926</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -575,7 +575,7 @@
         <v>45852.66946759259</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45847</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45944.55575231482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45855</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44732</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>45951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45781</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>46065.60184027778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44876</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45411.49836805555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>44564.67122685185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45098</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44529</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>45904</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45853</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>45716.34917824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>46000.60429398148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45215</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>45939</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44462</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>46029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>46030</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44455.36458333334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>44293</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44319.53942129629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44369.58023148148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44846</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>44739</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>44725.58684027778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44864.60390046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44287.39625</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44463</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44425.39621527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44549.75856481482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44515.72233796296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44511.78369212963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44735.3494212963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44417.55564814815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>44313.31770833334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>44688.45394675926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>44546.31119212963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44725</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44500</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>44503</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44601</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44445.39759259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44462</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44491</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44715.60085648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44650.3603125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>44748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44725</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44812</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44572</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45273</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>45268</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44630.5793287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>44581.60393518519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>45107.57693287037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>44866.54778935185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45574</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>45775.56512731482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>45664.46653935185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>45628.80193287037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>45575</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>45561</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44978</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>45604.33951388889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>45604.34466435185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>45281</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>45281</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>45575.58675925926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>44439.48746527778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>45636.41715277778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>44956</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>45551.559375</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44924.5246875</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45729.5565162037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>45604.34008101852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>45567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>45198</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>45422.49016203704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44455.4653125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>45628.79650462963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44690.56789351852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45240</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44585</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45282</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45455.44012731482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45771</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45574</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>45574</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45740.51744212963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45820.57768518518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45537.54650462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>44727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>45824.33739583333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>45397.63957175926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>45825.33287037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>45232</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>44273.38966435185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>45824.47616898148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45519.43871527778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45435.43137731482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>44609.58159722222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>45667.65321759259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>45838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>45905</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>45905</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>45909.60118055555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>45911.67565972222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>45107.58966435185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>45911.62171296297</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44572</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>45622.63122685185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>45915.61925925926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>45599</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>45849.58021990741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>45855.37773148148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>45855.38655092593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>45824.34381944445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>45855.37565972222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>45923.3503587963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>45604.50557870371</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>45264.58917824074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>45925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>45638.36590277778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>45145</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>45925</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>45138.42768518518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>45929.37491898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44425.39126157408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>45063</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>45870.32357638889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44960</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>45190</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>45931.33821759259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>45930.47725694445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>45931.56057870371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>45875.40737268519</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>45877.65421296296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>45104.61434027777</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>45170</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>45566.56789351852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>45936.38559027778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>45937.44243055556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>45883.40178240741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45939.54412037037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45365</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45939</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45939</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45940.64503472222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45411.62793981482</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45945.66170138889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>44992</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>45670.58211805556</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44972.35152777778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>44840</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>45945.48137731481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>45946.46853009259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>45560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45569.84101851852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>45951</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>45951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>45951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44982</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44882</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45236</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45953.37302083334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>45953.36090277778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45954.42386574074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44896.49959490741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45455.86696759259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>45954.37292824074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>45958.62429398148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>45960.37891203703</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>45961.39585648148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>45960</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>45964.64024305555</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45560</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>44711.36557870371</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45006.30673611111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>44830</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>45971.47856481482</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44935.32741898148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>45971</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45973</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>45975.61846064815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44869</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>45216</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>45321</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>45628.49807870371</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45175</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>45985.47695601852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45604.33113425926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45604.33263888889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44298.61732638889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45960.60587962963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45484.68149305556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>46034.60328703704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45638.3634375</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45604.33197916667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>45992.73412037037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>45527.55416666667</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>45527.55650462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>45993.50063657408</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>45604.50121527778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>46034.35295138889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>45527.57577546296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>45342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>46037.3446875</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>45628.80585648148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>45574</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>46036.44633101852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>46036.45327546296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45265</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>45154.50928240741</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>45268</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>45330.60379629629</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>45411.48761574074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>45411.49664351852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>46041.59100694444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>46036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>46042.43443287037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>46000.6309375</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>46043.5496875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>46045.51796296296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45576</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>46045.52084490741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45411.48168981481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45411.49284722222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45398.64800925926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>44965</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>46044.44135416667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44413</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45601.88305555555</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>46044.4659375</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>46044.4721412037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45628.49032407408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>45526.48674768519</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>45264</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45427.56964120371</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>45063</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>45930.66545138889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>46029.45364583333</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>46036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>46036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>46029.4415625</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>46036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>46010.7222337963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45738.52033564815</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>46010.66585648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44369.54519675926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45110.70590277778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>46057.42467592593</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44463</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45068</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45247</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>46014.44138888889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45455.44628472222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>46037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>46057.43586805555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>46057.45841435185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>46014.52145833334</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44462</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>46037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>44789.51010416666</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>46059.3237962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>46060.77570601852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45432.72061342592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45366.55604166666</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>46042</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44812</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>44691</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>46056</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45370</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>46065.65817129629</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>46064.61145833333</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>46065.49203703704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>46064.6483912037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>45939.50689814815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>46065.58650462963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>46026</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>45005</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>46066.6115625</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45561</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>45561</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44532.55016203703</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>44446.64893518519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>45561</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>46059</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>46069.46327546296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>46069.52863425926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>45469.52028935185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>46069.39009259259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>46027</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>46057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>46065</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>45665.59894675926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>44595.60778935185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>45644.44140046297</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>46029</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>45638.45646990741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>46051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>46073.84961805555</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>45719</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>46071</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>46030.58576388889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20570,7 +20570,7 @@
         <v>46073.85434027778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>46031</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>46031.57842592592</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>46030</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>46051</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>46031.55268518518</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>46031</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20979,7 +20979,7 @@
         <v>45775.57885416667</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44817</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>45334.72344907407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44425</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>45537.37413194445</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45546.56472222223</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>45720.36833333333</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>45622.45306712963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44784</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>45247</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>45201.55331018518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>45537.37069444444</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         <v>45604.34403935185</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>45771.70621527778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>44784.56407407407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>45644.31773148148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>45758.79458333334</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>44594</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>45140</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>45453.36730324074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>45761.48274305555</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>44811.45211805555</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>45411.48457175926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>45527.56167824074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>45442.60379629629</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44643</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>45628.49442129629</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>45232</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44953.45762731481</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>45520.96</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45182</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>45604</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>45614</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>45758.78844907408</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>45758.79019675926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>45758.79270833333</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>45442.60010416667</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>45232.89916666667</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>45636.30075231481</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44809</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44788</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44748</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44445</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>45171</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>45783.28149305555</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>45596.67398148148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>45428.91826388889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>45432.7103125</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23874,7 +23874,7 @@
         <v>45700.38395833333</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>45790</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45365</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45666.66917824074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45118</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45443.36738425926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45462.65965277778</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45377</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45804.39335648148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45804.81481481482</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45811</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45811</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45811</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45811.63216435185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45809.84229166667</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45552.88579861111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44784.55162037037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -575,7 +575,7 @@
         <v>45852.66946759259</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45847</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45944.55575231482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45855</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44732</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>45951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45781</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>46065.60184027778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>44802</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44876</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45411.49836805555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>44564.67122685185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45098</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44529</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>45904</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45853</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>45716.34917824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>46000.60429398148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45215</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>45939</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>44462</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>46029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>46030</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44455.36458333334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>44293</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44319.53942129629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44369.58023148148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44846</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>44739</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>44725.58684027778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44864.60390046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44287.39625</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44463</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44425.39621527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44549.75856481482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44515.72233796296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44511.78369212963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44735.3494212963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44417.55564814815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>44313.31770833334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>44688.45394675926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>44546.31119212963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44725</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44500</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>44503</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44601</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44445.39759259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44462</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44491</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44715.60085648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44650.3603125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>44748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44725</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44812</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44572</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45273</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>45268</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44630.5793287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>44581.60393518519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>45107.57693287037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>44866.54778935185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45574</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>45775.56512731482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>45664.46653935185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>45628.80193287037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>45575</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>45561</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44978</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>45604.33951388889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>45604.34466435185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>45281</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>45281</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>45575.58675925926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>44439.48746527778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>45636.41715277778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>44956</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>45551.559375</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44924.5246875</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45729.5565162037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>45604.34008101852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>45567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>45198</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>45422.49016203704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44455.4653125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>45628.79650462963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44690.56789351852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45240</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44585</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45282</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45455.44012731482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45771</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45574</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>45574</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45740.51744212963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45820.57768518518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45537.54650462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>44727</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>45824.33739583333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>45397.63957175926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>45825.33287037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>45232</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>44273.38966435185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>45824.47616898148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45519.43871527778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45435.43137731482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>44609.58159722222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>45667.65321759259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>45838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>45905</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>45905</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>45909.60118055555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>45911.67565972222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>45107.58966435185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>45911.62171296297</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44572</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>45622.63122685185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>45915.61925925926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>45599</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>45849.58021990741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>45855.37773148148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>45855.38655092593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>45824.34381944445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>45855.37565972222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>45923.3503587963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>45604.50557870371</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>45264.58917824074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>45925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>45638.36590277778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>45145</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>45925</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>45138.42768518518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>45929.37491898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44425.39126157408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>45063</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>45870.32357638889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44960</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>45190</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>45931.33821759259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>45930.47725694445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>45931.56057870371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>45875.40737268519</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>45877.65421296296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>45104.61434027777</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>45170</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>45566.56789351852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>45936.38559027778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>45937.44243055556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>45883.40178240741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>45939.54412037037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>45365</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45939</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45939</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45940.64503472222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45411.62793981482</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>45945.66170138889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>44992</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>45670.58211805556</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44972.35152777778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>44840</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>45945.48137731481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>45098</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>45946.46853009259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>45560</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45569.84101851852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>44732</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>45951</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>45951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>45951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44982</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44882</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45236</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45953.37302083334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>45953.36090277778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45954.42386574074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>44896.49959490741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45455.86696759259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>45954.37292824074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>45958.62429398148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>45960.37891203703</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>45961.39585648148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>45960</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>45964.64024305555</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45560</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>44711.36557870371</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45006.30673611111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>44830</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>45971.47856481482</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44935.32741898148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>45971</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45973</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>45975.61846064815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44869</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>45216</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>45321</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>45628.49807870371</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45175</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>45985.47695601852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45604.33113425926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45604.33263888889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44298.61732638889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45960.60587962963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45484.68149305556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>46034.60328703704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45638.3634375</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45604.33197916667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>45992.73412037037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>45527.55416666667</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>45527.55650462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>45993.50063657408</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>45604.50121527778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>46034.35295138889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>45527.57577546296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>45342</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>46037.3446875</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>45628.80585648148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>45574</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>46036.44633101852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>46036.45327546296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45265</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>45154.50928240741</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>45268</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>45330.60379629629</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>45411.48761574074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>45411.49664351852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>46041.59100694444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>46036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>46042.43443287037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>46000.6309375</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>46043.5496875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>46045.51796296296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45576</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>46045.52084490741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45411.48168981481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45411.49284722222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45398.64800925926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>44965</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>46044.44135416667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44413</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45601.88305555555</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>46044.4659375</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>46044.4721412037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45628.49032407408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>45526.48674768519</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>45264</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45427.56964120371</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>45063</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>45930.66545138889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>46029.45364583333</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>46036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>46036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>46029.4415625</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>46036</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>46010.7222337963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45738.52033564815</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>46010.66585648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44369.54519675926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45110.70590277778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>46057.42467592593</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44463</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45068</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45247</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>46014.44138888889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45455.44628472222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>46037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>46057.43586805555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>46057.45841435185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>46014.52145833334</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44462</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>46037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>44789.51010416666</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>46059.3237962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>46060.77570601852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45432.72061342592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45366.55604166666</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>46042</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44812</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>44691</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>46056</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45370</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>46065.65817129629</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>46064.61145833333</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>46065.49203703704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>46064.6483912037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>45939.50689814815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>46065.58650462963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>46026</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>45005</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>46066.6115625</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45561</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>45561</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44532.55016203703</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>44446.64893518519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>45561</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>46059</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>46069.46327546296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>46069.52863425926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>45469.52028935185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>46069.39009259259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>46027</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>46057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>46065</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>45665.59894675926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>44595.60778935185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>45644.44140046297</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>46029</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>45638.45646990741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>46051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>46073.84961805555</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>45719</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>46071</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>46030.58576388889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45163</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20570,7 +20570,7 @@
         <v>46073.85434027778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>46031</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>46031.57842592592</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>46030</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>46051</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>46031.55268518518</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>46031</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20979,7 +20979,7 @@
         <v>45775.57885416667</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44817</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>45334.72344907407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44425</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>45537.37413194445</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45546.56472222223</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>45720.36833333333</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>45622.45306712963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44784</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>45247</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>45201.55331018518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>45537.37069444444</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         <v>45604.34403935185</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>45771.70621527778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>44784.56407407407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>45644.31773148148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>45758.79458333334</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>44594</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>45140</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>45453.36730324074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>45761.48274305555</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>44811.45211805555</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>45411.48457175926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>45527.56167824074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>45442.60379629629</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44643</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>45628.49442129629</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>45232</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44953.45762731481</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44964</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>45520.96</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45182</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>45604</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>45614</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>45758.78844907408</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>45758.79019675926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>45758.79270833333</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>45442.60010416667</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>45232.89916666667</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>45636.30075231481</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44809</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44788</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44748</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44445</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>45171</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>45783.28149305555</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>45596.67398148148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>45428.91826388889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23817,7 +23817,7 @@
         <v>45432.7103125</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23874,7 +23874,7 @@
         <v>45700.38395833333</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>45790</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45365</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45666.66917824074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45118</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45443.36738425926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45462.65965277778</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45377</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45804.39335648148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45804.81481481482</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45811</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45811</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45811</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45811.63216435185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45809.84229166667</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45552.88579861111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44784.55162037037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -575,7 +575,7 @@
         <v>45852.66946759259</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45847</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45944.55575231482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45855</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45076</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44802</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45951</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>45781</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>46065.60184027778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44876</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45411.49836805555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>44564.67122685185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45904</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>45299</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45853</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45716.34917824074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>46000.60429398148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>45939</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45215</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44462</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>46030</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>46029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45098</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44455.36458333334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>44293</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44319.53942129629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44369.58023148148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44846</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>44739</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>44725.58684027778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44864.60390046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44287.39625</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44463</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44425.39621527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44549.75856481482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44515.72233796296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44511.78369212963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44735.3494212963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44417.55564814815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>44313.31770833334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>44688.45394675926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>44546.31119212963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44725</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>44500</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44601</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44445.39759259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44462</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44491</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44715.60085648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44650.3603125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>44748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44725</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44812</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45198</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45321</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>45110.70590277778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44789.51010416666</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>45719</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>45435.43137731482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>44882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>45422.49016203704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>44869</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>45370</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44809</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>45411.48168981481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>45455.44628472222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>44455.4653125</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         <v>45411.62793981482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>44908</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45455.44012731482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45281</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45281</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>45282</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45334.72344907407</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44572</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45604.33197916667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45411.49284722222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45537.37413194445</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44866.54778935185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45729.5565162037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44972.35152777778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44595.60778935185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44609.58159722222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44425</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45138.42768518518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>45883.40178240741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45644.31773148148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44585</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45804.81481481482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44413</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45809.84229166667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44784.55162037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>45811</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45811</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45811.63216435185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45552.88579861111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45811</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45537.54650462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45638.3634375</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45566.56789351852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44594</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45771</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44273.38966435185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45145</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45519.43871527778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>45820.57768518518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>45569.84101851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45824.33739583333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>45824.47616898148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45575.58675925926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45825.33287037037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>45740</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>45740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>45905</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45398.64800925926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>45576</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45905</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45170</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>45182</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45604.33113425926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>45604.33263888889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>45838</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45838</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45068</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45063</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45453.36730324074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44781</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>45628.79650462963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>45628.80193287037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>45628.49032407408</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45628.49807870371</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45574</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>45574</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>45006.30673611111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>45638.36590277778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45622.45306712963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>45638.45646990741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>45909.60118055555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>45636.41715277778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45107.57693287037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45911.67565972222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45604.50121527778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>45911.62171296297</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>45411.48761574074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>45915.61925925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45849.58021990741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>45855.37565972222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>45855.37773148148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>45855.38655092593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>45824.34381944445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45923.3503587963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44748</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45005</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45870.32357638889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45925</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>45925</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>45738.52033564815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>45930.47725694445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>45201.55331018518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>45929.37491898148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44896.49959490741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>45931.56057870371</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44369.54519675926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>45875.40737268519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>45098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>45877.65421296296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45931.33821759259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>45936.38559027778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>44788</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45775.57885416667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45236</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>45567</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>45937.44243055556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>45939</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>45940.64503472222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>45939.54412037037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>45939</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44532.55016203703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>44298.61732638889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>45945.66170138889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>45551.559375</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>45946.46853009259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44896</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>45945.48137731481</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>45411.49664351852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44439.48746527778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>45758.79270833333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>45951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>45951</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>45951</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>45342</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>45953.37302083334</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>45954.37292824074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>45561</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>45954.42386574074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45958.62429398148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44425.39126157408</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44924.5246875</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45527.57577546296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45330.60379629629</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45140</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45960</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45960.37891203703</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44462</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45561</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>45561</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45961.39585648148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>45964.64024305555</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>45560</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>45575</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>45971</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>45216</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>45971.47856481482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>45973</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>45537.37069444444</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44572</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>45442.60010416667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>45975.61846064815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>45665.59894675926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>45484.68149305556</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>45771.70621527778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44630.5793287037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>45985.47695601852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>45163</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>45604.34008101852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>45667.65321759259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>45960.60587962963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>45636.30075231481</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>45992.73412037037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>45993.50063657408</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>45644.44140046297</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>45604</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45190</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>46042.43443287037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45427.56964120371</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>46041.59100694444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>46000.6309375</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>46044.4659375</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>46044.4721412037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>46044.44135416667</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>46043.5496875</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>46045.51796296296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>45758.78844907408</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>45758.79019675926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>46045.52084490741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>45107.58966435185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>45232.89916666667</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45240</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45154.50928240741</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>45574</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45622.63122685185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45670.58211805556</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>46029.45364583333</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>46029.4415625</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>44690.56789351852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>46010.66585648148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>46010.7222337963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45930.66545138889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>46014.52145833334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>44727</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>46014.44138888889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>46057.43586805555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>46057.45841435185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>44711.36557870371</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>46057.42467592593</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>46059.3237962963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45247</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45939.50689814815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>44732</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>46064.6483912037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>46064.61145833333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44463</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18359,7 +18359,7 @@
         <v>46056</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>46059</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>45366.55604166666</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44812</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>45265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>46065.58650462963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>46066.6115625</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>45273</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45561</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45264.58917824074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>46069.46327546296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>46069.52863425926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>46027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>46026</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>46069.39009259259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>46065</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>46029</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>46071</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>46057</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>46030</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>46030.58576388889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45761.48274305555</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45397.63957175926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>46051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>46076</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>46031.55268518518</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>46031.57842592592</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>45469.52028935185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>45953.36090277778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>45520.96</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>46076.73989583334</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44446.64893518519</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>45232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>46031</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>46076</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>46073.84961805555</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>46034.35295138889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>46034.60328703704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>46031</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>46051</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>46036</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>46036.45327546296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>44581.60393518519</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>46076</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>46036</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>46036</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>46076</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>46076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>46036</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>46036.44633101852</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>46065.49203703704</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>45432.72061342592</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>46037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>46076</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44953.45762731481</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>46037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>46037.3446875</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>46076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>46060</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21968,7 +21968,7 @@
         <v>44445</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>46042</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>46065</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>46073.85434027778</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>45604.33951388889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>45604.34466435185</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>45546.56472222223</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>45604.50557870371</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>45601.88305555555</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44643</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>45104.61434027777</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>45560</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44896</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>45740.51744212963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>45628.80585648148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45527.55416666667</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>45527.55650462963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>45599</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>45411.48457175926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>45775.56512731482</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45628.49442129629</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44982</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>45268</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>45442.60379629629</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44935.32741898148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44784.56407407407</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44784</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>45455.86696759259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>45720.36833333333</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>45527.56167824074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45268</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45526.48674768519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44811.45211805555</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44978</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44965</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44830</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45758.79458333334</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45365</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>45604.34403935185</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45175</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45664.46653935185</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45264</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>45232</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>45171</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45596.67398148148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45783.28149305555</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45428.91826388889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45432.7103125</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45700.38395833333</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45666.66917824074</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45365</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45443.36738425926</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45118</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>45462.65965277778</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>45377</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>45804.39335648148</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>

--- a/Översikt SÄTER.xlsx
+++ b/Översikt SÄTER.xlsx
@@ -575,7 +575,7 @@
         <v>45852.66946759259</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45847</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45944.55575231482</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45855</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45076</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>44802</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45951</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>45781</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>46065.60184027778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44876</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44742</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45411.49836805555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>44564.67122685185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45904</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>45299</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45853</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>45716.34917824074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44529</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>46000.60429398148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>45939</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45215</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44462</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>46030</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>46029</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45098</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44455.36458333334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>44293</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44319.53942129629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44369.58023148148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44846</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>44739</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>44725.58684027778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44864.60390046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>44287.39625</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>44463</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44425.39621527777</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44549.75856481482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44515.72233796296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44511.78369212963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44735.3494212963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44417.55564814815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>44313.31770833334</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>44688.45394675926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>44546.31119212963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44725</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>44503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>44500</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44601</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>44445.39759259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44462</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44491</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44715.60085648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44650.3603125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>44748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>44725</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>44812</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45198</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45321</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>45110.70590277778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>44789.51010416666</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>45719</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>45435.43137731482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>44882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>45422.49016203704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>44869</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>45370</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44809</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>45411.48168981481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>45455.44628472222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>44455.4653125</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         <v>45411.62793981482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>44908</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45455.44012731482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45281</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45281</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>45282</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45334.72344907407</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44572</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45604.33197916667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45411.49284722222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45537.37413194445</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44866.54778935185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45729.5565162037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44972.35152777778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44595.60778935185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44609.58159722222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44425</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45138.42768518518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>45883.40178240741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45644.31773148148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44585</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45804.81481481482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44413</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44840</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45809.84229166667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44784.55162037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>45811</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45811</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45811.63216435185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45552.88579861111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45811</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45537.54650462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45638.3634375</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45566.56789351852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44594</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45771</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44273.38966435185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45145</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45519.43871527778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>45820.57768518518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>45569.84101851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45824.33739583333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>45824.47616898148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45575.58675925926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45825.33287037037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>45740</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>45740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>45905</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45398.64800925926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>45576</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45905</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45170</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>45182</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45604.33113425926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>45604.33263888889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>45838</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45838</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45068</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45063</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45453.36730324074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44781</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>45628.79650462963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>45628.80193287037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>45628.49032407408</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45628.49807870371</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45574</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>45574</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>45006.30673611111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>45638.36590277778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45622.45306712963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>45638.45646990741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>45909.60118055555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>45636.41715277778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45107.57693287037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45911.67565972222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45604.50121527778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>45911.62171296297</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>45411.48761574074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>45915.61925925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45849.58021990741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>45855.37565972222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>45855.37773148148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>45855.38655092593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>45824.34381944445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45923.3503587963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44748</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45005</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45870.32357638889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45925</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>45925</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>45738.52033564815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>45930.47725694445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>45201.55331018518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>45929.37491898148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44896.49959490741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>45931.56057870371</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44369.54519675926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>45875.40737268519</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>45098</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>45877.65421296296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45931.33821759259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>45936.38559027778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>44788</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45775.57885416667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45236</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>45567</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>45937.44243055556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>45939</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>45940.64503472222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>45939.54412037037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>45939</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44532.55016203703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>44298.61732638889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>45945.66170138889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>45551.559375</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>45946.46853009259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44896</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>45945.48137731481</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>45411.49664351852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44439.48746527778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>45758.79270833333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>45951</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>45951</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>45951</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>45342</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>45953.37302083334</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>45954.37292824074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>45561</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>45954.42386574074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45874</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45958.62429398148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44425.39126157408</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44924.5246875</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45527.57577546296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45330.60379629629</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45140</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45960</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45960.37891203703</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44462</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45561</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>45561</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45961.39585648148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>45964.64024305555</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>45560</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>45575</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>45971</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>45216</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>45971.47856481482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>45973</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>45537.37069444444</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44572</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>45442.60010416667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>45975.61846064815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>45665.59894675926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>45484.68149305556</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>45771.70621527778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44630.5793287037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>45985.47695601852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>45163</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>45604.34008101852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>45667.65321759259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>45960.60587962963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>45636.30075231481</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>45992.73412037037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>45993.50063657408</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>45644.44140046297</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>45604</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45190</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>46042.43443287037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45427.56964120371</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>46041.59100694444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45063</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>46000.6309375</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>46044.4659375</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>46044.4721412037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>46044.44135416667</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>46043.5496875</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>46045.51796296296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>45758.78844907408</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>45758.79019675926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>46045.52084490741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>45107.58966435185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>45232.89916666667</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45240</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45154.50928240741</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>45574</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45622.63122685185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45670.58211805556</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>46029.45364583333</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>46029.4415625</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>44690.56789351852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>46010.66585648148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>46010.7222337963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45930.66545138889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>46014.52145833334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>44727</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>46014.44138888889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>46057.43586805555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>46057.45841435185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>44711.36557870371</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>46057.42467592593</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>46059.3237962963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45247</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45939.50689814815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>44732</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>46064.6483912037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>46064.61145833333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44463</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18359,7 +18359,7 @@
         <v>46056</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>46059</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>45366.55604166666</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44812</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>45265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>46065.58650462963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>46066.6115625</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>45273</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45561</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>44964</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45264.58917824074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>46069.46327546296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>46069.52863425926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>46027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>46026</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>46069.39009259259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>46065</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>46029</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>46071</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>46057</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>46030</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>46030.58576388889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45761.48274305555</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45397.63957175926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>46051</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>46076</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>46031.55268518518</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>46031.57842592592</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>45469.52028935185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>45953.36090277778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>45520.96</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>46076.73989583334</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44446.64893518519</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>45232</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>46031</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>46076</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>46073.84961805555</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>46034.35295138889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>46034.60328703704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>46031</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>46051</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>46036</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>46036.45327546296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>44581.60393518519</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>46076</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>46036</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>46036</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>46076</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>46076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>46036</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>46036.44633101852</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>46065.49203703704</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>45432.72061342592</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>46037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>46076</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44953.45762731481</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>46037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>46037.3446875</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>46076</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>46060</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21968,7 +21968,7 @@
         <v>44445</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>46042</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>46065</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>46073.85434027778</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>45604.33951388889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>45604.34466435185</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>45546.56472222223</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>45604.50557870371</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>45601.88305555555</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44643</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>45104.61434027777</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>45560</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44896</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>45740.51744212963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>45628.80585648148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45527.55416666667</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>45527.55650462963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>45599</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>45411.48457175926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>45775.56512731482</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45628.49442129629</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44982</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>45268</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>45442.60379629629</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44935.32741898148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44784.56407407407</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44784</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>45455.86696759259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>45720.36833333333</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>45527.56167824074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45268</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45526.48674768519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44811.45211805555</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44978</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44965</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44830</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45758.79458333334</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45365</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>45604.34403935185</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45175</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45664.46653935185</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45264</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>45232</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>45171</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45596.67398148148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45783.28149305555</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45428.91826388889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45432.7103125</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45790</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45700.38395833333</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45666.66917824074</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45365</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45443.36738425926</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45118</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>45462.65965277778</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>45377</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>45804.39335648148</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
